--- a/biology/Botanique/Parc_naturel_national_du_Gard_du_Boug/Parc_naturel_national_du_Gard_du_Boug.xlsx
+++ b/biology/Botanique/Parc_naturel_national_du_Gard_du_Boug/Parc_naturel_national_du_Gard_du_Boug.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le parc naturel national du Gard du Boug est une aire protégée en Ukraine dans les boucles du Boug (oblast de Mykolaïv).
 </t>
@@ -511,12 +523,12 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Son importance est reconnue dès les années 1920 mais a été classé, par décret présidentiel le 19 juin 2009. La région fut le centre de l'armée zaporogue entre 1734 et 1775.
 Il commence au sud de la ville de Pervomaïsk et englobe les rivières Velyka Korabelna, Mertvovod, Bakshala et Arbuzinka.
-Usages
-La rivière étant navigable, les visites en canoës, kayaks et autres est possible.
 </t>
         </is>
       </c>
@@ -542,13 +554,18 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Flore</t>
+          <t>Histoire</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t xml:space="preserve">La réserve héberge plus de mille espèces de plantes, six sont sur la liste rouge européenne.
-			Flore,
+          <t>Usages</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La rivière étant navigable, les visites en canoës, kayaks et autres est possible.
 </t>
         </is>
       </c>
@@ -574,10 +591,46 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
+          <t>Flore</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La réserve héberge plus de mille espèces de plantes, six sont sur la liste rouge européenne.
+			Flore,
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Parc_naturel_national_du_Gard_du_Boug</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Parc_naturel_national_du_Gard_du_Boug</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
           <t>Faune</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">La réserve accueille plus de vingt-deux espèces de vertébrés, cinq sont sur la liste rouge européenne.
 			faune,
